--- a/PAPERWORK/User Study/study2.xlsx
+++ b/PAPERWORK/User Study/study2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/springs/Desktop/BUAA-Graduation-Project/PAPERWORK/User Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BE0756-C4E1-FB4E-9E2B-296B020F5CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFEEDCE-D936-504F-AFDC-7FFB9B210620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="4960" windowWidth="28040" windowHeight="17440" xr2:uid="{33E2DCA7-D378-374E-BBE4-10E1F1F6C827}"/>
+    <workbookView xWindow="5800" yWindow="4960" windowWidth="28040" windowHeight="17440" xr2:uid="{33E2DCA7-D378-374E-BBE4-10E1F1F6C827}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="9">
   <si>
     <t>完成时间</t>
   </si>
@@ -50,12 +50,6 @@
     <t>PRISM</t>
   </si>
   <si>
-    <t>基于手的最优方法</t>
-  </si>
-  <si>
-    <t>组别</t>
-  </si>
-  <si>
     <t>成功</t>
   </si>
   <si>
@@ -64,12 +58,18 @@
   <si>
     <t>N</t>
   </si>
+  <si>
+    <t>Implicit Gaze</t>
+  </si>
+  <si>
+    <t>参试者</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,18 +78,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Gill Sans MT"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -197,40 +187,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,38 +521,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1C18A9-6CD1-674C-9160-B166CEBBEF9A}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -586,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -595,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -604,265 +579,369 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>36.24</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>24.13</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>20.89</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>22.47</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>31.68</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>28.57</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>24.67</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43.61</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>33.049999999999997</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>28.31</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>41.23</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>32.71</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>26.48</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
-        <v>33.590000000000003</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2">
-        <v>36.24</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2">
-        <v>24.13</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>27.74</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>24.73</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2">
-        <v>20.89</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>22.47</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2">
-        <v>31.68</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2">
-        <v>28.57</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>24.67</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2">
-        <v>43.61</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="2">
-        <v>33.049999999999997</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2">
-        <v>28.31</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2">
-        <v>32.049999999999997</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>25.92</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>34.39</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>29.24</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>25.35</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>31.93</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>41.23</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2">
-        <v>32.71</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2">
-        <v>26.48</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>27.74</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="2">
-        <v>24.73</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2">
-        <v>25.92</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2">
-        <v>34.39</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="2">
-        <v>29.24</v>
-      </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>25.35</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2">
-        <v>38.880000000000003</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="2">
-        <v>31.93</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2">
-        <v>29.75</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2">
-        <v>33.79</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1">
         <v>22.51</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>26.04</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>25.9</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>29.29</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>35.21</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>31.04</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>30.19</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>38.119999999999997</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>32.97</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>28.28</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>34.32</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
